--- a/scores.xlsx
+++ b/scores.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FAISS Score</t>
+          <t>FAISS Distance</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,268 +457,268 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>4.244392110071448</v>
+        <v>13.3191</v>
       </c>
       <c r="C2" t="n">
-        <v>75.32109069824219</v>
+        <v>95.27974700927734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03774928774928775</v>
+        <v>10.68385142857143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.9994</v>
       </c>
       <c r="C3" t="n">
-        <v>65.2176513671875</v>
+        <v>131.8361968994141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03655699567962778</v>
+        <v>0.81202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.978845378036196</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>82.19660949707031</v>
+        <v>70.85282897949219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03581707707067477</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>68.39548492431641</v>
+        <v>71.70697021484375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03562421185372006</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>68.96157073974609</v>
+        <v>76.90805053710938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03553459119496855</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>4.946158523472777</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>92.67623901367188</v>
+        <v>78.24656677246094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03548085901027077</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>77.20851898193359</v>
+        <v>78.48947143554688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03540100250626566</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>77.48743438720703</v>
+        <v>93.44825744628906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03478523895946763</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>75.59854125976562</v>
+        <v>103.6337432861328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0343108504398827</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9224804080785518</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>96.72987365722656</v>
+        <v>106.6675033569336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03356643356643357</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9993794726831279</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>101.3314666748047</v>
+        <v>110.8966445922852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03344389165284688</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>83.96943664550781</v>
+        <v>111.8992919921875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03253968253968254</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>80.62390899658203</v>
+        <v>112.2455368041992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03239289446185998</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>120.8703308105469</v>
+        <v>114.1728973388672</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03234989648033126</v>
+        <v>0.01538461538461539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>86.81708526611328</v>
+        <v>130.3114776611328</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03175403225806452</v>
+        <v>0.01428571428571429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>84.58872222900391</v>
+        <v>131.2308349609375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.03088619624613922</v>
+        <v>0.01333333333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>92.71811676025391</v>
+        <v>134.7391967773438</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03055037313432836</v>
+        <v>0.01176470588235294</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>99.00917816162109</v>
+        <v>136.834716796875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03053613053613054</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>105.405517578125</v>
+        <v>141.8620300292969</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -466,7 +466,7 @@
         <v>95.27974700927734</v>
       </c>
       <c r="D2" t="n">
-        <v>10.68385142857143</v>
+        <v>10.65735728007408</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>131.8361968994141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.81202</v>
+        <v>0.8010256137157513</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>70.85282897949219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>0.002783467301713101</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>71.70697021484375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.002750767903118707</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>76.90805053710938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.002567128796333255</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>78.24656677246094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.002523768639394259</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>78.48947143554688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04000000000000001</v>
+        <v>0.002516056483809528</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>93.44825744628906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.002117561566593605</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>103.6337432861328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.025</v>
+        <v>0.001911429274331488</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>106.6675033569336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.001857570703919553</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
         <v>110.8966445922852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02</v>
+        <v>0.001787363693779511</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>111.8992919921875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01818181818181818</v>
+        <v>0.001771490294322127</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>112.2455368041992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.001766074016195434</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>114.1728973388672</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.001736519655414681</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>130.3114776611328</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.001523096103724667</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +676,7 @@
         <v>131.2308349609375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01333333333333333</v>
+        <v>0.001512506519822569</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>134.7391967773438</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01176470588235294</v>
+        <v>0.001473413757767145</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>136.834716796875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01111111111111111</v>
+        <v>0.001451013247226655</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>141.8620300292969</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01052631578947368</v>
+        <v>0.001399952107351308</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -460,13 +460,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>13.3191</v>
+        <v>42.8436</v>
       </c>
       <c r="C2" t="n">
         <v>95.27974700927734</v>
       </c>
       <c r="D2" t="n">
-        <v>10.65735728007408</v>
+        <v>34.27695728007409</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9994</v>
+        <v>28.1533</v>
       </c>
       <c r="C3" t="n">
         <v>131.8361968994141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8010256137157513</v>
+        <v>22.52414561371575</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C4" t="n">
         <v>70.85282897949219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002783467301713101</v>
+        <v>21.57206346730172</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C5" t="n">
         <v>71.70697021484375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002750767903118707</v>
+        <v>21.57203076790312</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C6" t="n">
         <v>76.90805053710938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002567128796333255</v>
+        <v>21.57184712879634</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C7" t="n">
         <v>78.24656677246094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002523768639394259</v>
+        <v>21.5718037686394</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C8" t="n">
         <v>78.48947143554688</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002516056483809528</v>
+        <v>21.57179605648381</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>19</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C9" t="n">
         <v>93.44825744628906</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002117561566593605</v>
+        <v>21.5713975615666</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C10" t="n">
         <v>103.6337432861328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001911429274331488</v>
+        <v>21.57119142927434</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C11" t="n">
         <v>106.6675033569336</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001857570703919553</v>
+        <v>21.57113757070392</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C12" t="n">
         <v>110.8966445922852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001787363693779511</v>
+        <v>21.57106736369378</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C13" t="n">
         <v>111.8992919921875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001771490294322127</v>
+        <v>21.57105149029432</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C14" t="n">
         <v>112.2455368041992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001766074016195434</v>
+        <v>21.5710460740162</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C15" t="n">
         <v>114.1728973388672</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001736519655414681</v>
+        <v>21.57101651965542</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C16" t="n">
         <v>130.3114776611328</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001523096103724667</v>
+        <v>21.57080309610373</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C17" t="n">
         <v>131.2308349609375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001512506519822569</v>
+        <v>21.57079250651983</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>14</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C18" t="n">
         <v>134.7391967773438</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001473413757767145</v>
+        <v>21.57075341375777</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C19" t="n">
         <v>136.834716796875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001451013247226655</v>
+        <v>21.57073101324723</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>26.9616</v>
       </c>
       <c r="C20" t="n">
         <v>141.8620300292969</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001399952107351308</v>
+        <v>21.57067995210735</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,268 +457,1402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>42.8436</v>
+        <v>90.0766</v>
       </c>
       <c r="C2" t="n">
-        <v>95.27974700927734</v>
+        <v>104.4095687866211</v>
       </c>
       <c r="D2" t="n">
-        <v>34.27695728007409</v>
+        <v>72.06317736095406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B3" t="n">
-        <v>28.1533</v>
+        <v>62.2676</v>
       </c>
       <c r="C3" t="n">
-        <v>131.8361968994141</v>
+        <v>117.7977600097656</v>
       </c>
       <c r="D3" t="n">
-        <v>22.52414561371575</v>
+        <v>49.81576353342676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="B4" t="n">
-        <v>26.9616</v>
+        <v>62.1107</v>
       </c>
       <c r="C4" t="n">
-        <v>70.85282897949219</v>
+        <v>131.6063385009766</v>
       </c>
       <c r="D4" t="n">
-        <v>21.57206346730172</v>
+        <v>49.69006822353035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B5" t="n">
-        <v>26.9616</v>
+        <v>60.4167</v>
       </c>
       <c r="C5" t="n">
-        <v>71.70697021484375</v>
+        <v>166.6592864990234</v>
       </c>
       <c r="D5" t="n">
-        <v>21.57203076790312</v>
+        <v>48.33455289544991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>26.9616</v>
+        <v>60.0442</v>
       </c>
       <c r="C6" t="n">
-        <v>76.90805053710938</v>
+        <v>141.5775451660156</v>
       </c>
       <c r="D6" t="n">
-        <v>21.57184712879634</v>
+        <v>48.03676274543069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B7" t="n">
-        <v>26.9616</v>
+        <v>59.691</v>
       </c>
       <c r="C7" t="n">
-        <v>78.24656677246094</v>
+        <v>115.7951507568359</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5718037686394</v>
+        <v>47.75451239986168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B8" t="n">
-        <v>26.9616</v>
+        <v>59.6717</v>
       </c>
       <c r="C8" t="n">
-        <v>78.48947143554688</v>
+        <v>123.8648910522461</v>
       </c>
       <c r="D8" t="n">
-        <v>21.57179605648381</v>
+        <v>47.73896173126581</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B9" t="n">
-        <v>26.9616</v>
+        <v>58.1257</v>
       </c>
       <c r="C9" t="n">
-        <v>93.44825744628906</v>
+        <v>231.3286590576172</v>
       </c>
       <c r="D9" t="n">
-        <v>21.5713975615666</v>
+        <v>46.50142084945703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B10" t="n">
-        <v>26.9616</v>
+        <v>57.9721</v>
       </c>
       <c r="C10" t="n">
-        <v>103.6337432861328</v>
+        <v>145.6052093505859</v>
       </c>
       <c r="D10" t="n">
-        <v>21.57119142927434</v>
+        <v>46.37904420800383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>26.9616</v>
+        <v>57.7706</v>
       </c>
       <c r="C11" t="n">
-        <v>106.6675033569336</v>
+        <v>127.3608932495117</v>
       </c>
       <c r="D11" t="n">
-        <v>21.57113757070392</v>
+        <v>46.21803810695094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B12" t="n">
-        <v>26.9616</v>
+        <v>57.6342</v>
       </c>
       <c r="C12" t="n">
-        <v>110.8966445922852</v>
+        <v>125.731201171875</v>
       </c>
       <c r="D12" t="n">
-        <v>21.57106736369378</v>
+        <v>46.10893814333132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9616</v>
+        <v>57.4531</v>
       </c>
       <c r="C13" t="n">
-        <v>111.8992919921875</v>
+        <v>121.8336868286133</v>
       </c>
       <c r="D13" t="n">
-        <v>21.57105149029432</v>
+        <v>45.96410821783799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="B14" t="n">
-        <v>26.9616</v>
+        <v>57.3903</v>
       </c>
       <c r="C14" t="n">
-        <v>112.2455368041992</v>
+        <v>116.1976852416992</v>
       </c>
       <c r="D14" t="n">
-        <v>21.5710460740162</v>
+        <v>45.91394651834623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>26.9616</v>
+        <v>57.2406</v>
       </c>
       <c r="C15" t="n">
-        <v>114.1728973388672</v>
+        <v>113.3941650390625</v>
       </c>
       <c r="D15" t="n">
-        <v>21.57101651965542</v>
+        <v>45.79422834092222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="B16" t="n">
-        <v>26.9616</v>
+        <v>57.1597</v>
       </c>
       <c r="C16" t="n">
-        <v>130.3114776611328</v>
+        <v>135.6266174316406</v>
       </c>
       <c r="D16" t="n">
-        <v>21.57080309610373</v>
+        <v>45.72922384360354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B17" t="n">
-        <v>26.9616</v>
+        <v>56.6155</v>
       </c>
       <c r="C17" t="n">
-        <v>131.2308349609375</v>
+        <v>116.0694732666016</v>
       </c>
       <c r="D17" t="n">
-        <v>21.57079250651983</v>
+        <v>45.2941083872885</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B18" t="n">
-        <v>26.9616</v>
+        <v>56.4122</v>
       </c>
       <c r="C18" t="n">
-        <v>134.7391967773438</v>
+        <v>126.5898132324219</v>
       </c>
       <c r="D18" t="n">
-        <v>21.57075341375777</v>
+        <v>45.13132752326015</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B19" t="n">
-        <v>26.9616</v>
+        <v>56.3727</v>
       </c>
       <c r="C19" t="n">
-        <v>136.834716796875</v>
+        <v>125.7242279052734</v>
       </c>
       <c r="D19" t="n">
-        <v>21.57073101324723</v>
+        <v>45.09973823017198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56.1415</v>
+      </c>
+      <c r="C20" t="n">
+        <v>132.9089050292969</v>
+      </c>
+      <c r="D20" t="n">
+        <v>44.91469355265026</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>55.887</v>
+      </c>
+      <c r="C21" t="n">
+        <v>150.3932952880859</v>
+      </c>
+      <c r="D21" t="n">
+        <v>44.71092106246594</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53</v>
+      </c>
+      <c r="B22" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C22" t="n">
+        <v>97.94815063476562</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43.61474126061697</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>97</v>
+      </c>
+      <c r="B23" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C23" t="n">
+        <v>99.54672241210938</v>
+      </c>
+      <c r="D23" t="n">
+        <v>43.61470912500778</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C24" t="n">
+        <v>102.2855987548828</v>
+      </c>
+      <c r="D24" t="n">
+        <v>43.61465637837618</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>72</v>
+      </c>
+      <c r="B25" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C25" t="n">
+        <v>102.8001403808594</v>
+      </c>
+      <c r="D25" t="n">
+        <v>43.61464677966779</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>100</v>
+      </c>
+      <c r="B26" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C26" t="n">
+        <v>103.5180130004883</v>
+      </c>
+      <c r="D26" t="n">
+        <v>43.61463354575407</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>99</v>
+      </c>
+      <c r="B27" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C27" t="n">
+        <v>105.7411193847656</v>
+      </c>
+      <c r="D27" t="n">
+        <v>43.61459369217367</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C28" t="n">
+        <v>108.5267791748047</v>
+      </c>
+      <c r="D28" t="n">
+        <v>43.61454603744497</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>44</v>
+      </c>
+      <c r="B29" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C29" t="n">
+        <v>110.318977355957</v>
+      </c>
+      <c r="D29" t="n">
+        <v>43.61451663885485</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>95</v>
+      </c>
+      <c r="B30" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C30" t="n">
+        <v>110.3780746459961</v>
+      </c>
+      <c r="D30" t="n">
+        <v>43.61451568555693</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C31" t="n">
+        <v>110.3876419067383</v>
+      </c>
+      <c r="D31" t="n">
+        <v>43.61451553132265</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>23</v>
+      </c>
+      <c r="B32" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C32" t="n">
+        <v>111.0240631103516</v>
+      </c>
+      <c r="D32" t="n">
+        <v>43.61450533070884</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>89</v>
+      </c>
+      <c r="B33" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C33" t="n">
+        <v>112.8339920043945</v>
+      </c>
+      <c r="D33" t="n">
+        <v>43.61447694444584</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16</v>
+      </c>
+      <c r="B34" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C34" t="n">
+        <v>113.0683288574219</v>
+      </c>
+      <c r="D34" t="n">
+        <v>43.61447333505807</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>20</v>
+      </c>
+      <c r="B35" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C35" t="n">
+        <v>113.5259628295898</v>
+      </c>
+      <c r="D35" t="n">
+        <v>43.61446632891145</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C36" t="n">
+        <v>114.4394226074219</v>
+      </c>
+      <c r="D36" t="n">
+        <v>43.61445251039795</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>70</v>
+      </c>
+      <c r="B37" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C37" t="n">
+        <v>115.4680786132812</v>
+      </c>
+      <c r="D37" t="n">
+        <v>43.61443720871831</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C38" t="n">
+        <v>115.6319961547852</v>
+      </c>
+      <c r="D38" t="n">
+        <v>43.61443479530998</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>75</v>
+      </c>
+      <c r="B39" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C39" t="n">
+        <v>116.6008834838867</v>
+      </c>
+      <c r="D39" t="n">
+        <v>43.61442066749564</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C40" t="n">
+        <v>116.7839660644531</v>
+      </c>
+      <c r="D40" t="n">
+        <v>43.61441802398988</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11</v>
+      </c>
+      <c r="B41" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C41" t="n">
+        <v>116.8926696777344</v>
+      </c>
+      <c r="D41" t="n">
+        <v>43.6144164583171</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35</v>
+      </c>
+      <c r="B42" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C42" t="n">
+        <v>118.6567535400391</v>
+      </c>
+      <c r="D42" t="n">
+        <v>43.61439144765409</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>13</v>
+      </c>
+      <c r="B43" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C43" t="n">
+        <v>118.8698348999023</v>
+      </c>
+      <c r="D43" t="n">
+        <v>43.6143884764784</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56</v>
+      </c>
+      <c r="B44" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C44" t="n">
+        <v>118.9890899658203</v>
+      </c>
+      <c r="D44" t="n">
+        <v>43.6143868182087</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C45" t="n">
+        <v>119.5042190551758</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43.61437969292668</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>26</v>
+      </c>
+      <c r="B46" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C46" t="n">
+        <v>119.6986846923828</v>
+      </c>
+      <c r="D46" t="n">
+        <v>43.61437701888558</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>82</v>
+      </c>
+      <c r="B47" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C47" t="n">
+        <v>119.7904510498047</v>
+      </c>
+      <c r="D47" t="n">
+        <v>43.61437576002293</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>86</v>
+      </c>
+      <c r="B48" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C48" t="n">
+        <v>119.8104934692383</v>
+      </c>
+      <c r="D48" t="n">
+        <v>43.61437548533291</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>6</v>
       </c>
-      <c r="B20" t="n">
-        <v>26.9616</v>
-      </c>
-      <c r="C20" t="n">
-        <v>141.8620300292969</v>
-      </c>
-      <c r="D20" t="n">
-        <v>21.57067995210735</v>
+      <c r="B49" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C49" t="n">
+        <v>119.8268814086914</v>
+      </c>
+      <c r="D49" t="n">
+        <v>43.61437526079684</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>94</v>
+      </c>
+      <c r="B50" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C50" t="n">
+        <v>119.9492721557617</v>
+      </c>
+      <c r="D50" t="n">
+        <v>43.61437358580863</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>25</v>
+      </c>
+      <c r="B51" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C51" t="n">
+        <v>120.1593399047852</v>
+      </c>
+      <c r="D51" t="n">
+        <v>43.61437071879855</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59</v>
+      </c>
+      <c r="B52" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C52" t="n">
+        <v>120.8062362670898</v>
+      </c>
+      <c r="D52" t="n">
+        <v>43.61436195205541</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>29</v>
+      </c>
+      <c r="B53" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C53" t="n">
+        <v>120.9894561767578</v>
+      </c>
+      <c r="D53" t="n">
+        <v>43.61435948595451</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17</v>
+      </c>
+      <c r="B54" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C54" t="n">
+        <v>121.0685348510742</v>
+      </c>
+      <c r="D54" t="n">
+        <v>43.61435842385955</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>87</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C55" t="n">
+        <v>122.1691284179688</v>
+      </c>
+      <c r="D55" t="n">
+        <v>43.61434378351272</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>7</v>
+      </c>
+      <c r="B56" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C56" t="n">
+        <v>123.9540786743164</v>
+      </c>
+      <c r="D56" t="n">
+        <v>43.61432058800899</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>68</v>
+      </c>
+      <c r="B57" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C57" t="n">
+        <v>124.0621032714844</v>
+      </c>
+      <c r="D57" t="n">
+        <v>43.61431920547287</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>96</v>
+      </c>
+      <c r="B58" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C58" t="n">
+        <v>124.2600555419922</v>
+      </c>
+      <c r="D58" t="n">
+        <v>43.61431667819988</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>74</v>
+      </c>
+      <c r="B59" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C59" t="n">
+        <v>124.2745819091797</v>
+      </c>
+      <c r="D59" t="n">
+        <v>43.61431649305511</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>93</v>
+      </c>
+      <c r="B60" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C60" t="n">
+        <v>124.7468795776367</v>
+      </c>
+      <c r="D60" t="n">
+        <v>43.61431049672383</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54</v>
+      </c>
+      <c r="B61" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C61" t="n">
+        <v>125.4162139892578</v>
+      </c>
+      <c r="D61" t="n">
+        <v>43.61430207553991</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>15</v>
+      </c>
+      <c r="B62" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C62" t="n">
+        <v>125.5474700927734</v>
+      </c>
+      <c r="D62" t="n">
+        <v>43.61430043459782</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>92</v>
+      </c>
+      <c r="B63" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C63" t="n">
+        <v>125.6683502197266</v>
+      </c>
+      <c r="D63" t="n">
+        <v>43.61429892638258</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>48</v>
+      </c>
+      <c r="B64" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C64" t="n">
+        <v>126.5170974731445</v>
+      </c>
+      <c r="D64" t="n">
+        <v>43.61428841712965</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>83</v>
+      </c>
+      <c r="B65" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C65" t="n">
+        <v>127.0945510864258</v>
+      </c>
+      <c r="D65" t="n">
+        <v>43.61428134666388</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52</v>
+      </c>
+      <c r="B66" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C66" t="n">
+        <v>127.8299407958984</v>
+      </c>
+      <c r="D66" t="n">
+        <v>43.61427243415284</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>43</v>
+      </c>
+      <c r="B67" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C67" t="n">
+        <v>127.8313827514648</v>
+      </c>
+      <c r="D67" t="n">
+        <v>43.6142724167771</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55</v>
+      </c>
+      <c r="B68" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C68" t="n">
+        <v>128.43310546875</v>
+      </c>
+      <c r="D68" t="n">
+        <v>43.61426519973291</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C69" t="n">
+        <v>128.4757690429688</v>
+      </c>
+      <c r="D69" t="n">
+        <v>43.61426469057399</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33</v>
+      </c>
+      <c r="B70" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C70" t="n">
+        <v>129.1653289794922</v>
+      </c>
+      <c r="D70" t="n">
+        <v>43.61425650746761</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>47</v>
+      </c>
+      <c r="B71" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C71" t="n">
+        <v>129.5820922851562</v>
+      </c>
+      <c r="D71" t="n">
+        <v>43.61425160357979</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>77</v>
+      </c>
+      <c r="B72" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C72" t="n">
+        <v>130.4484100341797</v>
+      </c>
+      <c r="D72" t="n">
+        <v>43.6142415094648</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>41</v>
+      </c>
+      <c r="B73" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C73" t="n">
+        <v>130.8187561035156</v>
+      </c>
+      <c r="D73" t="n">
+        <v>43.61423723476926</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>76</v>
+      </c>
+      <c r="B74" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C74" t="n">
+        <v>131.40087890625</v>
+      </c>
+      <c r="D74" t="n">
+        <v>43.6142305639906</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62</v>
+      </c>
+      <c r="B75" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C75" t="n">
+        <v>131.6295166015625</v>
+      </c>
+      <c r="D75" t="n">
+        <v>43.61422795995586</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>46</v>
+      </c>
+      <c r="B76" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C76" t="n">
+        <v>132.4372863769531</v>
+      </c>
+      <c r="D76" t="n">
+        <v>43.61421883143933</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>32</v>
+      </c>
+      <c r="B77" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C77" t="n">
+        <v>133.8046417236328</v>
+      </c>
+      <c r="D77" t="n">
+        <v>43.61420362843774</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38</v>
+      </c>
+      <c r="B78" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C78" t="n">
+        <v>133.9223022460938</v>
+      </c>
+      <c r="D78" t="n">
+        <v>43.61420233462275</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>40</v>
+      </c>
+      <c r="B79" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>135.5029907226562</v>
+      </c>
+      <c r="D79" t="n">
+        <v>43.61418516936326</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>85</v>
+      </c>
+      <c r="B80" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C80" t="n">
+        <v>135.9942626953125</v>
+      </c>
+      <c r="D80" t="n">
+        <v>43.61417991515313</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42</v>
+      </c>
+      <c r="B81" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C81" t="n">
+        <v>136.4508972167969</v>
+      </c>
+      <c r="D81" t="n">
+        <v>43.61417506507451</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>51</v>
+      </c>
+      <c r="B82" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C82" t="n">
+        <v>137.3963928222656</v>
+      </c>
+      <c r="D82" t="n">
+        <v>43.6141651243701</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>73</v>
+      </c>
+      <c r="B83" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C83" t="n">
+        <v>137.8057708740234</v>
+      </c>
+      <c r="D83" t="n">
+        <v>43.61416086228361</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>65</v>
+      </c>
+      <c r="B84" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C84" t="n">
+        <v>137.8926696777344</v>
+      </c>
+      <c r="D84" t="n">
+        <v>43.61415996080185</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>18</v>
+      </c>
+      <c r="B85" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C85" t="n">
+        <v>138.3178253173828</v>
+      </c>
+      <c r="D85" t="n">
+        <v>43.61415556647934</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>79</v>
+      </c>
+      <c r="B86" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C86" t="n">
+        <v>139.2240753173828</v>
+      </c>
+      <c r="D86" t="n">
+        <v>43.6141462885995</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>8</v>
+      </c>
+      <c r="B87" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C87" t="n">
+        <v>139.5330047607422</v>
+      </c>
+      <c r="D87" t="n">
+        <v>43.61414315323252</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C88" t="n">
+        <v>143.3345794677734</v>
+      </c>
+      <c r="D88" t="n">
+        <v>43.61410566932982</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>19</v>
+      </c>
+      <c r="B89" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C89" t="n">
+        <v>144.438232421875</v>
+      </c>
+      <c r="D89" t="n">
+        <v>43.61409515422644</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39</v>
+      </c>
+      <c r="B90" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C90" t="n">
+        <v>145.2228851318359</v>
+      </c>
+      <c r="D90" t="n">
+        <v>43.61408777495411</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>71</v>
+      </c>
+      <c r="B91" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C91" t="n">
+        <v>146.9588317871094</v>
+      </c>
+      <c r="D91" t="n">
+        <v>43.6140717273527</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>49</v>
+      </c>
+      <c r="B92" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C92" t="n">
+        <v>147.2613525390625</v>
+      </c>
+      <c r="D92" t="n">
+        <v>43.61406896921265</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63</v>
+      </c>
+      <c r="B93" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C93" t="n">
+        <v>162.9081115722656</v>
+      </c>
+      <c r="D93" t="n">
+        <v>43.61394019586512</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>81</v>
+      </c>
+      <c r="B94" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C94" t="n">
+        <v>169.8158569335938</v>
+      </c>
+      <c r="D94" t="n">
+        <v>43.61389085148645</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64</v>
+      </c>
+      <c r="B95" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C95" t="n">
+        <v>189.49951171875</v>
+      </c>
+      <c r="D95" t="n">
+        <v>43.61376987145739</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34</v>
+      </c>
+      <c r="B96" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C96" t="n">
+        <v>217.6455383300781</v>
+      </c>
+      <c r="D96" t="n">
+        <v>43.61363472253003</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>98</v>
+      </c>
+      <c r="B97" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C97" t="n">
+        <v>222.9774169921875</v>
+      </c>
+      <c r="D97" t="n">
+        <v>43.61361294716711</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>9</v>
+      </c>
+      <c r="B98" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C98" t="n">
+        <v>239.5032348632812</v>
+      </c>
+      <c r="D98" t="n">
+        <v>43.61355158964624</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>50</v>
+      </c>
+      <c r="B99" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C99" t="n">
+        <v>247.325439453125</v>
+      </c>
+      <c r="D99" t="n">
+        <v>43.61352539472895</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>22</v>
+      </c>
+      <c r="B100" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C100" t="n">
+        <v>272.829345703125</v>
+      </c>
+      <c r="D100" t="n">
+        <v>43.61345038190807</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>14</v>
+      </c>
+      <c r="B101" t="n">
+        <v>54.5159</v>
+      </c>
+      <c r="C101" t="n">
+        <v>282.3242797851562</v>
+      </c>
+      <c r="D101" t="n">
+        <v>43.61342590490922</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,1276 +457,1276 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2606</v>
+        <v>2580</v>
       </c>
       <c r="B2" t="n">
-        <v>258.01</v>
+        <v>4898.4821</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>22.6196403503418</v>
       </c>
       <c r="D2" t="n">
-        <v>206.408</v>
+        <v>3918.794147529439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1243</v>
+        <v>1129</v>
       </c>
       <c r="B3" t="n">
-        <v>253.6067</v>
+        <v>4686.8385</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>202.88536</v>
+        <v>3749.4708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2617</v>
+        <v>878</v>
       </c>
       <c r="B4" t="n">
-        <v>253.5226</v>
+        <v>4573.9623</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.86505126953125</v>
       </c>
       <c r="D4" t="n">
-        <v>202.81808</v>
+        <v>3659.178220455493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>450</v>
+        <v>369</v>
       </c>
       <c r="B5" t="n">
-        <v>251.471</v>
+        <v>4390.2911</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>21.10940551757812</v>
       </c>
       <c r="D5" t="n">
-        <v>201.1768</v>
+        <v>3512.24192592391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1013</v>
+        <v>1054</v>
       </c>
       <c r="B6" t="n">
-        <v>251.2526</v>
+        <v>4386.5812</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>25.34453773498535</v>
       </c>
       <c r="D6" t="n">
-        <v>201.00208</v>
+        <v>3509.272551706562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2050</v>
+        <v>1149</v>
       </c>
       <c r="B7" t="n">
-        <v>248.3887</v>
+        <v>4220.5555</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>198.71096</v>
+        <v>3376.4444</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1987</v>
+        <v>2532</v>
       </c>
       <c r="B8" t="n">
-        <v>246.6513</v>
+        <v>4204.0249</v>
       </c>
       <c r="C8" t="n">
-        <v>28.6663990020752</v>
+        <v>22.38754272460938</v>
       </c>
       <c r="D8" t="n">
-        <v>197.3277816338594</v>
+        <v>3363.228471561075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1400</v>
+        <v>853</v>
       </c>
       <c r="B9" t="n">
-        <v>246.4612</v>
+        <v>4160.4691</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>197.16896</v>
+        <v>3328.37528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>387</v>
+        <v>1217</v>
       </c>
       <c r="B10" t="n">
-        <v>246.4599</v>
+        <v>4126.5745</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>22.4861888885498</v>
       </c>
       <c r="D10" t="n">
-        <v>197.16792</v>
+        <v>3301.268115642999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>386</v>
+        <v>1142</v>
       </c>
       <c r="B11" t="n">
-        <v>246.0021</v>
+        <v>4121.5667</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>196.80168</v>
+        <v>3297.253360000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1928</v>
+        <v>1144</v>
       </c>
       <c r="B12" t="n">
-        <v>245.5474</v>
+        <v>4111.0639</v>
       </c>
       <c r="C12" t="n">
-        <v>27.62877655029297</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>196.4449059778901</v>
+        <v>3288.85112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1202</v>
+        <v>1076</v>
       </c>
       <c r="B13" t="n">
-        <v>245.1187</v>
+        <v>4096.3601</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>196.09496</v>
+        <v>3277.08808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1395</v>
+        <v>1140</v>
       </c>
       <c r="B14" t="n">
-        <v>244.9972</v>
+        <v>4088.1611</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>195.99776</v>
+        <v>3270.52888</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>660</v>
+        <v>1391</v>
       </c>
       <c r="B15" t="n">
-        <v>244.4812</v>
+        <v>4086.7383</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>195.58496</v>
+        <v>3269.39064</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1713</v>
+        <v>2299</v>
       </c>
       <c r="B16" t="n">
-        <v>244.2142</v>
+        <v>4086.7383</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>195.37136</v>
+        <v>3269.39064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2456</v>
+        <v>1223</v>
       </c>
       <c r="B17" t="n">
-        <v>244.2142</v>
+        <v>4077.3906</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>195.37136</v>
+        <v>3261.91248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1225</v>
+        <v>73</v>
       </c>
       <c r="B18" t="n">
-        <v>244.1871</v>
+        <v>4073.794</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>195.34968</v>
+        <v>3259.0352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>693</v>
+        <v>2201</v>
       </c>
       <c r="B19" t="n">
-        <v>243.7667</v>
+        <v>4062.4037</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>195.01336</v>
+        <v>3249.92296</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2605</v>
+        <v>1161</v>
       </c>
       <c r="B20" t="n">
-        <v>243.7529</v>
+        <v>4053.4926</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>195.00232</v>
+        <v>3242.79408</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1237</v>
+        <v>2305</v>
       </c>
       <c r="B21" t="n">
-        <v>243.6241</v>
+        <v>4049.3602</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>194.89928</v>
+        <v>3239.48816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1269</v>
+        <v>1397</v>
       </c>
       <c r="B22" t="n">
-        <v>243.4369</v>
+        <v>4049.3602</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>194.74952</v>
+        <v>3239.48816</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1263</v>
+        <v>2273</v>
       </c>
       <c r="B23" t="n">
-        <v>242.7369</v>
+        <v>4042.2495</v>
       </c>
       <c r="C23" t="n">
-        <v>28.32521057128906</v>
+        <v>23.43802642822266</v>
       </c>
       <c r="D23" t="n">
-        <v>194.1963400703799</v>
+        <v>3233.807783966925</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>281</v>
+        <v>1365</v>
       </c>
       <c r="B24" t="n">
-        <v>242.5715</v>
+        <v>4042.2495</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>23.43802642822266</v>
       </c>
       <c r="D24" t="n">
-        <v>194.0572</v>
+        <v>3233.807783966925</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="B25" t="n">
-        <v>242.3987</v>
+        <v>4038.7937</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>193.91896</v>
+        <v>3231.03496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1568</v>
+        <v>554</v>
       </c>
       <c r="B26" t="n">
-        <v>241.9762</v>
+        <v>4030.9431</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>193.58096</v>
+        <v>3224.75448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2527</v>
+        <v>1562</v>
       </c>
       <c r="B27" t="n">
-        <v>241.9701</v>
+        <v>4029.3202</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>193.57608</v>
+        <v>3223.45616</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="B28" t="n">
-        <v>241.9431</v>
+        <v>4024.485</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>193.55448</v>
+        <v>3219.588</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1006</v>
+        <v>1349</v>
       </c>
       <c r="B29" t="n">
-        <v>241.8713</v>
+        <v>4008.7697</v>
       </c>
       <c r="C29" t="n">
-        <v>26.40854644775391</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>193.5043369940373</v>
+        <v>3207.01576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1285</v>
+        <v>2257</v>
       </c>
       <c r="B30" t="n">
-        <v>241.807</v>
+        <v>4008.7697</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>193.4456</v>
+        <v>3207.01576</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2296</v>
+        <v>1416</v>
       </c>
       <c r="B31" t="n">
-        <v>241.7502</v>
+        <v>4004.7671</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>193.40016</v>
+        <v>3203.81368</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1984</v>
+        <v>2242</v>
       </c>
       <c r="B32" t="n">
-        <v>241.4644</v>
+        <v>4000.4076</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>193.17152</v>
+        <v>3200.32608</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1264</v>
+        <v>1334</v>
       </c>
       <c r="B33" t="n">
-        <v>241.0754</v>
+        <v>4000.4076</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>192.86032</v>
+        <v>3200.32608</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B34" t="n">
-        <v>241.0581</v>
+        <v>4000.0431</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>192.84648</v>
+        <v>3200.03448</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1153</v>
+        <v>2436</v>
       </c>
       <c r="B35" t="n">
-        <v>240.9175</v>
+        <v>4000.0304</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>192.734</v>
+        <v>3200.02432</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1103</v>
+        <v>2034</v>
       </c>
       <c r="B36" t="n">
-        <v>240.6493</v>
+        <v>3994.4244</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>28.45861434936523</v>
       </c>
       <c r="D36" t="n">
-        <v>192.51944</v>
+        <v>3195.546309185589</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1459</v>
+        <v>1153</v>
       </c>
       <c r="B37" t="n">
-        <v>240.5994</v>
+        <v>3992.6468</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>192.47952</v>
+        <v>3194.11744</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>64</v>
+        <v>1157</v>
       </c>
       <c r="B38" t="n">
-        <v>240.5919</v>
+        <v>3992.0688</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>192.47352</v>
+        <v>3193.65504</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1009</v>
+        <v>537</v>
       </c>
       <c r="B39" t="n">
-        <v>240.5873</v>
+        <v>3991.0569</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>192.46984</v>
+        <v>3192.84552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>685</v>
+        <v>1480</v>
       </c>
       <c r="B40" t="n">
-        <v>240.3475</v>
+        <v>3986.918</v>
       </c>
       <c r="C40" t="n">
-        <v>28.56905746459961</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>192.2847638273638</v>
+        <v>3189.5344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1577</v>
+        <v>1158</v>
       </c>
       <c r="B41" t="n">
-        <v>197.10055</v>
+        <v>3984.6652</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>157.68044</v>
+        <v>3187.73216</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1040</v>
+        <v>1233</v>
       </c>
       <c r="B42" t="n">
-        <v>193.8813</v>
+        <v>3984.1298</v>
       </c>
       <c r="C42" t="n">
-        <v>29.52682018280029</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>155.1115916158841</v>
+        <v>3187.30384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1951</v>
+        <v>1904</v>
       </c>
       <c r="B43" t="n">
-        <v>193.2711</v>
+        <v>3983.7207</v>
       </c>
       <c r="C43" t="n">
-        <v>29.04455375671387</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.623536780514</v>
+        <v>3186.97656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>690</v>
+        <v>2081</v>
       </c>
       <c r="B44" t="n">
-        <v>191.9605</v>
+        <v>3983.1512</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>153.5684</v>
+        <v>3186.52096</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1985</v>
+        <v>1227</v>
       </c>
       <c r="B45" t="n">
-        <v>191.8514</v>
+        <v>3982.7664</v>
       </c>
       <c r="C45" t="n">
-        <v>32.33624458312988</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>153.4871194760208</v>
+        <v>3186.21312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>403</v>
+        <v>1572</v>
       </c>
       <c r="B46" t="n">
-        <v>190.0211</v>
+        <v>3982.3266</v>
       </c>
       <c r="C46" t="n">
-        <v>29.92715263366699</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>152.0233468093558</v>
+        <v>3185.86128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2049</v>
+        <v>628</v>
       </c>
       <c r="B47" t="n">
-        <v>189.94505</v>
+        <v>3982.0065</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>151.95604</v>
+        <v>3185.6052</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1165</v>
+        <v>1066</v>
       </c>
       <c r="B48" t="n">
-        <v>188.5868</v>
+        <v>3979.2238</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>150.86944</v>
+        <v>3183.37904</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1559</v>
+        <v>1734</v>
       </c>
       <c r="B49" t="n">
-        <v>187.9899</v>
+        <v>3976.7554</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>150.39192</v>
+        <v>3181.40432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1204</v>
+        <v>2105</v>
       </c>
       <c r="B50" t="n">
-        <v>187.7199</v>
+        <v>3976.685</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>150.17592</v>
+        <v>3181.348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1192</v>
+        <v>544</v>
       </c>
       <c r="B51" t="n">
-        <v>187.14005</v>
+        <v>3976.2315</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>149.71204</v>
+        <v>3180.9852</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1952</v>
+        <v>2172</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>25.58623695373535</v>
+        <v>24.87474250793457</v>
       </c>
       <c r="D52" t="n">
-        <v>0.007522689290253246</v>
+        <v>0.007729545518710742</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1947</v>
+        <v>2169</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>25.8963508605957</v>
+        <v>24.91284561157227</v>
       </c>
       <c r="D53" t="n">
-        <v>0.007435952967620173</v>
+        <v>0.007718179739807625</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1008</v>
+        <v>1240</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>26.15267944335938</v>
+        <v>25.18361282348633</v>
       </c>
       <c r="D54" t="n">
-        <v>0.007365755575511471</v>
+        <v>0.007638365314529966</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1949</v>
+        <v>2181</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>26.74845504760742</v>
+        <v>25.71427345275879</v>
       </c>
       <c r="D55" t="n">
-        <v>0.007207608483314272</v>
+        <v>0.007486634452315452</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2405</v>
+        <v>324</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>27.08899879455566</v>
+        <v>26.23634719848633</v>
       </c>
       <c r="D56" t="n">
-        <v>0.007120225304675683</v>
+        <v>0.007343128597329495</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2206</v>
+        <v>2171</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>27.09107208251953</v>
+        <v>26.4426155090332</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007119699789758316</v>
+        <v>0.007287935070699314</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>588</v>
+        <v>1829</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>27.40373039245605</v>
+        <v>27.18692779541016</v>
       </c>
       <c r="D58" t="n">
-        <v>0.007041328629605617</v>
+        <v>0.007095487718692322</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2317</v>
+        <v>337</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>28.01416015625</v>
+        <v>27.26460456848145</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00689318591070497</v>
+        <v>0.007075987902658469</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>209</v>
+        <v>2173</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>28.16336822509766</v>
+        <v>27.59487915039062</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00685791841519466</v>
+        <v>0.00699425931993379</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1909</v>
+        <v>2112</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>28.56754684448242</v>
+        <v>27.746826171875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.006764172930948509</v>
+        <v>0.006957289782329911</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2223</v>
+        <v>2113</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>28.73993492126465</v>
+        <v>27.88826370239258</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006724964278822143</v>
+        <v>0.006923226749118732</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>178</v>
+        <v>2178</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>28.80181121826172</v>
+        <v>28.13891983032227</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00671100150709785</v>
+        <v>0.006863672406685367</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1405</v>
+        <v>55</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>28.85651588439941</v>
+        <v>28.14017105102539</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006698705259996655</v>
+        <v>0.006863377694310492</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1925</v>
+        <v>1849</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>28.96027946472168</v>
+        <v>28.23993110656738</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006675505154599796</v>
+        <v>0.006839961396320779</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>119</v>
+        <v>1109</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>29.0321044921875</v>
+        <v>28.27017211914062</v>
       </c>
       <c r="D66" t="n">
-        <v>0.006659539961710897</v>
+        <v>0.006832894565359052</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2362</v>
+        <v>1854</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>29.12216567993164</v>
+        <v>28.4127311706543</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006639628840938435</v>
+        <v>0.006799776560686899</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1406</v>
+        <v>2108</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>29.21059417724609</v>
+        <v>28.47624015808105</v>
       </c>
       <c r="D68" t="n">
-        <v>0.006620194188389559</v>
+        <v>0.006785125881978167</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>593</v>
+        <v>339</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>29.30745315551758</v>
+        <v>28.65564918518066</v>
       </c>
       <c r="D69" t="n">
-        <v>0.006599036843304972</v>
+        <v>0.00674407762079755</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1081</v>
+        <v>638</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>29.30863380432129</v>
+        <v>28.65979766845703</v>
       </c>
       <c r="D70" t="n">
-        <v>0.006598779783055901</v>
+        <v>0.0067431343340787</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>468</v>
+        <v>635</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>29.42081832885742</v>
+        <v>28.67305374145508</v>
       </c>
       <c r="D71" t="n">
-        <v>0.006574445099995174</v>
+        <v>0.006740121921478804</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>411</v>
+        <v>2170</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>29.47954940795898</v>
+        <v>28.81633758544922</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006561776794107558</v>
+        <v>0.006707731941484414</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>58</v>
+        <v>2573</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>29.49860572814941</v>
+        <v>28.97299385070801</v>
       </c>
       <c r="D73" t="n">
-        <v>0.006557676825711585</v>
+        <v>0.006672673440503699</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1942</v>
+        <v>639</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>31.45183753967285</v>
+        <v>29.17927551269531</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006162979207433078</v>
+        <v>0.006627064321536391</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1937</v>
+        <v>1110</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>32.34757041931152</v>
+        <v>29.24186325073242</v>
       </c>
       <c r="D75" t="n">
-        <v>0.005997438418607562</v>
+        <v>0.006613349129378008</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1941</v>
+        <v>995</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>32.85299587249756</v>
+        <v>29.2713623046875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005907896623190197</v>
+        <v>0.006606904505550785</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2013</v>
+        <v>2110</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>33.26922035217285</v>
+        <v>29.27565765380859</v>
       </c>
       <c r="D77" t="n">
-        <v>0.005836140943525111</v>
+        <v>0.006605967153114527</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1584</v>
+        <v>2063</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>33.58369827270508</v>
+        <v>29.29341506958008</v>
       </c>
       <c r="D78" t="n">
-        <v>0.005783071504468003</v>
+        <v>0.006602094862551012</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1986</v>
+        <v>2274</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>33.63115119934082</v>
+        <v>29.33083343505859</v>
       </c>
       <c r="D79" t="n">
-        <v>0.005775147318920397</v>
+        <v>0.006593950028713204</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>56</v>
+        <v>1366</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>33.77913951873779</v>
+        <v>29.33083343505859</v>
       </c>
       <c r="D80" t="n">
-        <v>0.005750573555514418</v>
+        <v>0.006593950028713204</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>181</v>
+        <v>2667</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>33.88164043426514</v>
+        <v>29.35636520385742</v>
       </c>
       <c r="D81" t="n">
-        <v>0.005733675294798775</v>
+        <v>0.00658840406803993</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1267</v>
+        <v>2179</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>34.30237483978271</v>
+        <v>29.3653507232666</v>
       </c>
       <c r="D82" t="n">
-        <v>0.005665341238590481</v>
+        <v>0.006586454469855854</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>748</v>
+        <v>2592</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>34.46516513824463</v>
+        <v>29.42089462280273</v>
       </c>
       <c r="D83" t="n">
-        <v>0.005639336493158626</v>
+        <v>0.006574428611645269</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>511</v>
+        <v>630</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>34.58765602111816</v>
+        <v>29.46918869018555</v>
       </c>
       <c r="D84" t="n">
-        <v>0.005619926186802454</v>
+        <v>0.006564008055272643</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1933</v>
+        <v>315</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>34.74050807952881</v>
+        <v>29.55693054199219</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00559589134980861</v>
+        <v>0.006545160016159163</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2315</v>
+        <v>637</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>34.82036685943604</v>
+        <v>29.57680130004883</v>
       </c>
       <c r="D86" t="n">
-        <v>0.005583415736215853</v>
+        <v>0.006540906553220158</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2408</v>
+        <v>2175</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>35.08691215515137</v>
+        <v>29.60577392578125</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005542175488446446</v>
+        <v>0.006534714674590433</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2441</v>
+        <v>335</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>35.16096591949463</v>
+        <v>29.65115737915039</v>
       </c>
       <c r="D88" t="n">
-        <v>0.005530825709834776</v>
+        <v>0.00652503908828071</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1698</v>
+        <v>336</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>35.16096591949463</v>
+        <v>29.66428756713867</v>
       </c>
       <c r="D89" t="n">
-        <v>0.005530825709834776</v>
+        <v>0.006522245121857312</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>356</v>
+        <v>1851</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>35.40172958374023</v>
+        <v>29.66816139221191</v>
       </c>
       <c r="D90" t="n">
-        <v>0.005494244429784873</v>
+        <v>0.006521421269512081</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>681</v>
+        <v>1114</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>35.5405158996582</v>
+        <v>29.73601913452148</v>
       </c>
       <c r="D91" t="n">
-        <v>0.005473376472001885</v>
+        <v>0.006507023538886592</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>213</v>
+        <v>1112</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>35.78712272644043</v>
+        <v>29.80475044250488</v>
       </c>
       <c r="D92" t="n">
-        <v>0.005436685045668215</v>
+        <v>0.006492505121029542</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2580</v>
+        <v>722</v>
       </c>
       <c r="B2" t="n">
         <v>4898.4821</v>
       </c>
       <c r="C2" t="n">
-        <v>22.6196403503418</v>
+        <v>22.61967658996582</v>
       </c>
       <c r="D2" t="n">
-        <v>3918.794147529439</v>
+        <v>3918.794147516448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1129</v>
+        <v>1560</v>
       </c>
       <c r="B3" t="n">
         <v>4686.8385</v>
@@ -485,49 +485,49 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>878</v>
+        <v>1370</v>
       </c>
       <c r="B4" t="n">
         <v>4573.9623</v>
       </c>
       <c r="C4" t="n">
-        <v>22.86505126953125</v>
+        <v>22.86502265930176</v>
       </c>
       <c r="D4" t="n">
-        <v>3659.178220455493</v>
+        <v>3659.17822046554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>369</v>
+        <v>1040</v>
       </c>
       <c r="B5" t="n">
         <v>4390.2911</v>
       </c>
       <c r="C5" t="n">
-        <v>21.10940551757812</v>
+        <v>21.109375</v>
       </c>
       <c r="D5" t="n">
-        <v>3512.24192592391</v>
+        <v>3512.241925936396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1054</v>
+        <v>1546</v>
       </c>
       <c r="B6" t="n">
         <v>4386.5812</v>
       </c>
       <c r="C6" t="n">
-        <v>25.34453773498535</v>
+        <v>25.34450912475586</v>
       </c>
       <c r="D6" t="n">
-        <v>3509.272551706562</v>
+        <v>3509.272551714807</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1149</v>
+        <v>1580</v>
       </c>
       <c r="B7" t="n">
         <v>4220.5555</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2532</v>
+        <v>674</v>
       </c>
       <c r="B8" t="n">
         <v>4204.0249</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>853</v>
+        <v>1345</v>
       </c>
       <c r="B9" t="n">
         <v>4160.4691</v>
@@ -569,21 +569,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1217</v>
+        <v>397</v>
       </c>
       <c r="B10" t="n">
         <v>4126.5745</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4861888885498</v>
+        <v>22.48619270324707</v>
       </c>
       <c r="D10" t="n">
-        <v>3301.268115642999</v>
+        <v>3301.268115641617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1142</v>
+        <v>1573</v>
       </c>
       <c r="B11" t="n">
         <v>4121.5667</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1144</v>
+        <v>1575</v>
       </c>
       <c r="B12" t="n">
         <v>4111.0639</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1076</v>
+        <v>331</v>
       </c>
       <c r="B13" t="n">
         <v>4096.3601</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1140</v>
+        <v>1571</v>
       </c>
       <c r="B14" t="n">
         <v>4088.1611</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1391</v>
+        <v>2498</v>
       </c>
       <c r="B15" t="n">
         <v>4086.7383</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2299</v>
+        <v>1755</v>
       </c>
       <c r="B16" t="n">
         <v>4086.7383</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1223</v>
+        <v>403</v>
       </c>
       <c r="B17" t="n">
         <v>4077.3906</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>4073.794</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2201</v>
+        <v>2400</v>
       </c>
       <c r="B19" t="n">
         <v>4062.4037</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1161</v>
+        <v>1592</v>
       </c>
       <c r="B20" t="n">
         <v>4053.4926</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2305</v>
+        <v>1761</v>
       </c>
       <c r="B21" t="n">
         <v>4049.3602</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1397</v>
+        <v>2504</v>
       </c>
       <c r="B22" t="n">
         <v>4049.3602</v>
@@ -751,35 +751,35 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2273</v>
+        <v>2472</v>
       </c>
       <c r="B23" t="n">
         <v>4042.2495</v>
       </c>
       <c r="C23" t="n">
-        <v>23.43802642822266</v>
+        <v>23.43803405761719</v>
       </c>
       <c r="D23" t="n">
-        <v>3233.807783966925</v>
+        <v>3233.80778396437</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1365</v>
+        <v>1729</v>
       </c>
       <c r="B24" t="n">
         <v>4042.2495</v>
       </c>
       <c r="C24" t="n">
-        <v>23.43802642822266</v>
+        <v>23.43803405761719</v>
       </c>
       <c r="D24" t="n">
-        <v>3233.807783966925</v>
+        <v>3233.80778396437</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>310</v>
+        <v>1028</v>
       </c>
       <c r="B25" t="n">
         <v>4038.7937</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>554</v>
+        <v>1225</v>
       </c>
       <c r="B26" t="n">
         <v>4030.9431</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1562</v>
+        <v>1923</v>
       </c>
       <c r="B27" t="n">
         <v>4029.3202</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>322</v>
+        <v>54</v>
       </c>
       <c r="B28" t="n">
         <v>4024.485</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1349</v>
+        <v>2456</v>
       </c>
       <c r="B29" t="n">
         <v>4008.7697</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2257</v>
+        <v>1713</v>
       </c>
       <c r="B30" t="n">
         <v>4008.7697</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1416</v>
+        <v>450</v>
       </c>
       <c r="B31" t="n">
         <v>4004.7671</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2242</v>
+        <v>1698</v>
       </c>
       <c r="B32" t="n">
         <v>4000.4076</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1334</v>
+        <v>2441</v>
       </c>
       <c r="B33" t="n">
         <v>4000.4076</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>713</v>
+        <v>214</v>
       </c>
       <c r="B34" t="n">
         <v>4000.0431</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2436</v>
+        <v>2591</v>
       </c>
       <c r="B35" t="n">
         <v>4000.0304</v>
@@ -933,21 +933,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2034</v>
+        <v>2233</v>
       </c>
       <c r="B36" t="n">
         <v>3994.4244</v>
       </c>
       <c r="C36" t="n">
-        <v>28.45861434936523</v>
+        <v>28.45863151550293</v>
       </c>
       <c r="D36" t="n">
-        <v>3195.546309185589</v>
+        <v>3195.546309181633</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1153</v>
+        <v>1584</v>
       </c>
       <c r="B37" t="n">
         <v>3992.6468</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1157</v>
+        <v>1588</v>
       </c>
       <c r="B38" t="n">
         <v>3992.0688</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>537</v>
+        <v>1208</v>
       </c>
       <c r="B39" t="n">
         <v>3991.0569</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1480</v>
+        <v>1841</v>
       </c>
       <c r="B40" t="n">
         <v>3986.918</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1158</v>
+        <v>1589</v>
       </c>
       <c r="B41" t="n">
         <v>3984.6652</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1233</v>
+        <v>413</v>
       </c>
       <c r="B42" t="n">
         <v>3984.1298</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1904</v>
+        <v>2145</v>
       </c>
       <c r="B43" t="n">
         <v>3983.7207</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2081</v>
+        <v>2280</v>
       </c>
       <c r="B44" t="n">
         <v>3983.1512</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1227</v>
+        <v>407</v>
       </c>
       <c r="B45" t="n">
         <v>3982.7664</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1572</v>
+        <v>1933</v>
       </c>
       <c r="B46" t="n">
         <v>3982.3266</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>628</v>
+        <v>1299</v>
       </c>
       <c r="B47" t="n">
         <v>3982.0065</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1066</v>
+        <v>1558</v>
       </c>
       <c r="B48" t="n">
         <v>3979.2238</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1734</v>
+        <v>2095</v>
       </c>
       <c r="B49" t="n">
         <v>3976.7554</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2105</v>
+        <v>2304</v>
       </c>
       <c r="B50" t="n">
         <v>3976.685</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>544</v>
+        <v>1215</v>
       </c>
       <c r="B51" t="n">
         <v>3976.2315</v>
@@ -1157,259 +1157,259 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2172</v>
+        <v>2371</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>24.87474250793457</v>
+        <v>24.87474060058594</v>
       </c>
       <c r="D52" t="n">
-        <v>0.007729545518710742</v>
+        <v>0.007729546088491839</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2169</v>
+        <v>2368</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>24.91284561157227</v>
+        <v>24.91283798217773</v>
       </c>
       <c r="D53" t="n">
-        <v>0.007718179739807625</v>
+        <v>0.007718182012234842</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1240</v>
+        <v>420</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>25.18361282348633</v>
+        <v>25.18358993530273</v>
       </c>
       <c r="D54" t="n">
-        <v>0.007638365314529966</v>
+        <v>0.00763837199154821</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2181</v>
+        <v>2380</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>25.71427345275879</v>
+        <v>25.71427536010742</v>
       </c>
       <c r="D55" t="n">
-        <v>0.007486634452315452</v>
+        <v>0.00748663391778394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>26.23634719848633</v>
+        <v>26.23632431030273</v>
       </c>
       <c r="D56" t="n">
-        <v>0.007343128597329495</v>
+        <v>0.00734313476816494</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2171</v>
+        <v>2370</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>26.4426155090332</v>
+        <v>26.44260025024414</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007287935070699314</v>
+        <v>0.007287939122977996</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1829</v>
+        <v>510</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>27.18692779541016</v>
+        <v>27.18692588806152</v>
       </c>
       <c r="D58" t="n">
-        <v>0.007095487718692322</v>
+        <v>0.007095488198828711</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>337</v>
+        <v>69</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>27.26460456848145</v>
+        <v>27.26458358764648</v>
       </c>
       <c r="D59" t="n">
-        <v>0.007075987902658469</v>
+        <v>0.007075993155172943</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2173</v>
+        <v>2372</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>27.59487915039062</v>
+        <v>27.59486770629883</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00699425931993379</v>
+        <v>0.006994262119140504</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2112</v>
+        <v>2311</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>27.746826171875</v>
+        <v>27.74681663513184</v>
       </c>
       <c r="D61" t="n">
-        <v>0.006957289782329911</v>
+        <v>0.006957292090407588</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2113</v>
+        <v>2312</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>27.88826370239258</v>
+        <v>27.88825416564941</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006923226749118732</v>
+        <v>0.006923229034650941</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2178</v>
+        <v>2377</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>28.13891983032227</v>
+        <v>28.13891220092773</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006863672406685367</v>
+        <v>0.006863674203789679</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>28.14017105102539</v>
+        <v>28.14014053344727</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006863377694310492</v>
+        <v>0.006863384882116082</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1849</v>
+        <v>530</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>28.23993110656738</v>
+        <v>28.23990821838379</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006839961396320779</v>
+        <v>0.006839966750451546</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1109</v>
+        <v>364</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>28.27017211914062</v>
+        <v>28.2701530456543</v>
       </c>
       <c r="D66" t="n">
-        <v>0.006832894565359052</v>
+        <v>0.00683289901791934</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1854</v>
+        <v>535</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>28.4127311706543</v>
+        <v>28.41270446777344</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006799776560686899</v>
+        <v>0.006799782733992845</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2108</v>
+        <v>2307</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>28.47624015808105</v>
+        <v>28.47622871398926</v>
       </c>
       <c r="D68" t="n">
-        <v>0.006785125881978167</v>
+        <v>0.006785128516290862</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>28.65564918518066</v>
+        <v>28.65563583374023</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00674407762079755</v>
+        <v>0.006744080657088901</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>638</v>
+        <v>1309</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -1423,310 +1423,310 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>635</v>
+        <v>1306</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>28.67305374145508</v>
+        <v>28.67304992675781</v>
       </c>
       <c r="D71" t="n">
-        <v>0.006740121921478804</v>
+        <v>0.00674012278797297</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2170</v>
+        <v>2369</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>28.81633758544922</v>
+        <v>28.81632995605469</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006707731941484414</v>
+        <v>0.00670773365785707</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2573</v>
+        <v>715</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>28.97299385070801</v>
+        <v>28.97296905517578</v>
       </c>
       <c r="D73" t="n">
-        <v>0.006672673440503699</v>
+        <v>0.006672678960560422</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>639</v>
+        <v>1310</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>29.17927551269531</v>
+        <v>29.17926406860352</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006627064321536391</v>
+        <v>0.006627066834544406</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1110</v>
+        <v>365</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>29.24186325073242</v>
+        <v>29.24184799194336</v>
       </c>
       <c r="D75" t="n">
-        <v>0.006613349129378008</v>
+        <v>0.006613352466201186</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>995</v>
+        <v>1487</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>29.2713623046875</v>
+        <v>29.27135467529297</v>
       </c>
       <c r="D76" t="n">
-        <v>0.006606904505550785</v>
+        <v>0.006606906170711847</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2110</v>
+        <v>2309</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>29.27565765380859</v>
+        <v>29.2756462097168</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006605967153114527</v>
+        <v>0.006605969650147753</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2063</v>
+        <v>2262</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>29.29341506958008</v>
+        <v>29.29339599609375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.006602094862551012</v>
+        <v>0.006602099019396486</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2274</v>
+        <v>1730</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>29.33083343505859</v>
+        <v>29.33083152770996</v>
       </c>
       <c r="D79" t="n">
-        <v>0.006593950028713204</v>
+        <v>0.00659395044337251</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1366</v>
+        <v>2473</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>29.33083343505859</v>
+        <v>29.33083152770996</v>
       </c>
       <c r="D80" t="n">
-        <v>0.006593950028713204</v>
+        <v>0.00659395044337251</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2667</v>
+        <v>809</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>29.35636520385742</v>
+        <v>29.35634994506836</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00658840406803993</v>
+        <v>0.006588407379738079</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2179</v>
+        <v>2378</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>29.3653507232666</v>
+        <v>29.3653564453125</v>
       </c>
       <c r="D82" t="n">
-        <v>0.006586454469855854</v>
+        <v>0.00658645322870478</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2592</v>
+        <v>734</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>29.42089462280273</v>
+        <v>29.42086791992188</v>
       </c>
       <c r="D83" t="n">
-        <v>0.006574428611645269</v>
+        <v>0.006574434382558328</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>630</v>
+        <v>1301</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>29.46918869018555</v>
+        <v>29.46917533874512</v>
       </c>
       <c r="D84" t="n">
-        <v>0.006564008055272643</v>
+        <v>0.006564010931588183</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>315</v>
+        <v>1033</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>29.55693054199219</v>
+        <v>29.55691146850586</v>
       </c>
       <c r="D85" t="n">
-        <v>0.006545160016159163</v>
+        <v>0.006545164101618527</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>637</v>
+        <v>1308</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>29.57680130004883</v>
+        <v>29.5767936706543</v>
       </c>
       <c r="D86" t="n">
-        <v>0.006540906553220158</v>
+        <v>0.006540908185279988</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2175</v>
+        <v>2374</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>29.60577392578125</v>
+        <v>29.60575485229492</v>
       </c>
       <c r="D87" t="n">
-        <v>0.006534714674590433</v>
+        <v>0.006534718747020329</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>29.65115737915039</v>
+        <v>29.65116119384766</v>
       </c>
       <c r="D88" t="n">
-        <v>0.00652503908828071</v>
+        <v>0.006525038276205479</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>336</v>
+        <v>68</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>29.66428756713867</v>
+        <v>29.66427230834961</v>
       </c>
       <c r="D89" t="n">
-        <v>0.006522245121857312</v>
+        <v>0.006522248367379056</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1851</v>
+        <v>532</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>29.66816139221191</v>
+        <v>29.66814994812012</v>
       </c>
       <c r="D90" t="n">
-        <v>0.006521421269512081</v>
+        <v>0.006521423703038192</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1114</v>
+        <v>369</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>29.73601913452148</v>
+        <v>29.73601150512695</v>
       </c>
       <c r="D91" t="n">
-        <v>0.006507023538886592</v>
+        <v>0.006507025154081517</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1112</v>
+        <v>367</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>29.80475044250488</v>
+        <v>29.80472755432129</v>
       </c>
       <c r="D92" t="n">
-        <v>0.006492505121029542</v>
+        <v>0.006492509945017969</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,1276 +457,1262 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>722</v>
+        <v>2580</v>
       </c>
       <c r="B2" t="n">
-        <v>4898.4821</v>
+        <v>4828.4096</v>
       </c>
       <c r="C2" t="n">
-        <v>22.61967658996582</v>
+        <v>21.50588417053223</v>
       </c>
       <c r="D2" t="n">
-        <v>3918.794147516448</v>
+        <v>3862.736566564886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1560</v>
+        <v>1129</v>
       </c>
       <c r="B3" t="n">
-        <v>4686.8385</v>
+        <v>4626.3694</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.50381088256836</v>
       </c>
       <c r="D3" t="n">
-        <v>3749.4708</v>
+        <v>3701.102076557827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1370</v>
+        <v>878</v>
       </c>
       <c r="B4" t="n">
-        <v>4573.9623</v>
+        <v>4512.3465</v>
       </c>
       <c r="C4" t="n">
-        <v>22.86502265930176</v>
+        <v>25.69179153442383</v>
       </c>
       <c r="D4" t="n">
-        <v>3659.17822046554</v>
+        <v>3609.884692940283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1040</v>
+        <v>1054</v>
       </c>
       <c r="B5" t="n">
-        <v>4390.2911</v>
+        <v>4327.1804</v>
       </c>
       <c r="C5" t="n">
-        <v>21.109375</v>
+        <v>29.64146041870117</v>
       </c>
       <c r="D5" t="n">
-        <v>3512.241925936396</v>
+        <v>3461.750847104037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1546</v>
+        <v>369</v>
       </c>
       <c r="B6" t="n">
-        <v>4386.5812</v>
+        <v>4314.6895</v>
       </c>
       <c r="C6" t="n">
-        <v>25.34450912475586</v>
+        <v>25.33501815795898</v>
       </c>
       <c r="D6" t="n">
-        <v>3509.272551714807</v>
+        <v>3451.759194450811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1580</v>
+        <v>1149</v>
       </c>
       <c r="B7" t="n">
-        <v>4220.5555</v>
+        <v>4151.9464</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3376.4444</v>
+        <v>3321.55712</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>674</v>
+        <v>2532</v>
       </c>
       <c r="B8" t="n">
-        <v>4204.0249</v>
+        <v>4140.4467</v>
       </c>
       <c r="C8" t="n">
-        <v>22.38754272460938</v>
+        <v>23.97596740722656</v>
       </c>
       <c r="D8" t="n">
-        <v>3363.228471561075</v>
+        <v>3312.36536769783</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1345</v>
+        <v>853</v>
       </c>
       <c r="B9" t="n">
-        <v>4160.4691</v>
+        <v>4094.7575</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3328.37528</v>
+        <v>3275.806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>397</v>
+        <v>1217</v>
       </c>
       <c r="B10" t="n">
-        <v>4126.5745</v>
+        <v>4067.1737</v>
       </c>
       <c r="C10" t="n">
-        <v>22.48619270324707</v>
+        <v>23.67292404174805</v>
       </c>
       <c r="D10" t="n">
-        <v>3301.268115641617</v>
+        <v>3253.747066051787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1573</v>
+        <v>1142</v>
       </c>
       <c r="B11" t="n">
-        <v>4121.5667</v>
+        <v>4060.0285</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3297.253360000001</v>
+        <v>3248.0228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1575</v>
+        <v>1144</v>
       </c>
       <c r="B12" t="n">
-        <v>4111.0639</v>
+        <v>4048.9247</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3288.85112</v>
+        <v>3239.13976</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>331</v>
+        <v>1076</v>
       </c>
       <c r="B13" t="n">
-        <v>4096.3601</v>
+        <v>4032.3466</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3277.08808</v>
+        <v>3225.87728</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1571</v>
+        <v>1391</v>
       </c>
       <c r="B14" t="n">
-        <v>4088.1611</v>
+        <v>4023.1958</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3270.52888</v>
+        <v>3218.55664</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2498</v>
+        <v>2299</v>
       </c>
       <c r="B15" t="n">
-        <v>4086.7383</v>
+        <v>4023.1958</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3269.39064</v>
+        <v>3218.55664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1755</v>
+        <v>1140</v>
       </c>
       <c r="B16" t="n">
-        <v>4086.7383</v>
+        <v>4022.467</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3269.39064</v>
+        <v>3217.9736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>403</v>
+        <v>73</v>
       </c>
       <c r="B17" t="n">
-        <v>4077.3906</v>
+        <v>4014.3932</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3261.91248</v>
+        <v>3211.51456</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>28</v>
+        <v>1223</v>
       </c>
       <c r="B18" t="n">
-        <v>4073.794</v>
+        <v>4006.6525</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3259.0352</v>
+        <v>3205.322</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2400</v>
+        <v>2201</v>
       </c>
       <c r="B19" t="n">
-        <v>4062.4037</v>
+        <v>3998.4969</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3249.92296</v>
+        <v>3198.79752</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1592</v>
+        <v>1161</v>
       </c>
       <c r="B20" t="n">
-        <v>4053.4926</v>
+        <v>3988.8932</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3242.79408</v>
+        <v>3191.11456</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1761</v>
+        <v>1397</v>
       </c>
       <c r="B21" t="n">
-        <v>4049.3602</v>
+        <v>3987.5566</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3239.48816</v>
+        <v>3190.04528</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2504</v>
+        <v>2305</v>
       </c>
       <c r="B22" t="n">
-        <v>4049.3602</v>
+        <v>3987.5566</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3239.48816</v>
+        <v>3190.04528</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2472</v>
+        <v>2273</v>
       </c>
       <c r="B23" t="n">
-        <v>4042.2495</v>
+        <v>3980.1967</v>
       </c>
       <c r="C23" t="n">
-        <v>23.43803405761719</v>
+        <v>24.62224578857422</v>
       </c>
       <c r="D23" t="n">
-        <v>3233.80778396437</v>
+        <v>3184.165165717019</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1729</v>
+        <v>1365</v>
       </c>
       <c r="B24" t="n">
-        <v>4042.2495</v>
+        <v>3980.1967</v>
       </c>
       <c r="C24" t="n">
-        <v>23.43803405761719</v>
+        <v>24.62224578857422</v>
       </c>
       <c r="D24" t="n">
-        <v>3233.80778396437</v>
+        <v>3184.165165717019</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1028</v>
+        <v>310</v>
       </c>
       <c r="B25" t="n">
-        <v>4038.7937</v>
+        <v>3979.3929</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3231.03496</v>
+        <v>3183.51432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1225</v>
+        <v>1562</v>
       </c>
       <c r="B26" t="n">
-        <v>4030.9431</v>
+        <v>3969.9194</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3224.75448</v>
+        <v>3175.93552</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1923</v>
+        <v>322</v>
       </c>
       <c r="B27" t="n">
-        <v>4029.3202</v>
+        <v>3965.0842</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>3223.45616</v>
+        <v>3172.06736</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>54</v>
+        <v>554</v>
       </c>
       <c r="B28" t="n">
-        <v>4024.485</v>
+        <v>3956.7696</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3219.588</v>
+        <v>3165.41568</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2456</v>
+        <v>2436</v>
       </c>
       <c r="B29" t="n">
-        <v>4008.7697</v>
+        <v>3940.6296</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3207.01576</v>
+        <v>3152.50368</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1713</v>
+        <v>1334</v>
       </c>
       <c r="B30" t="n">
-        <v>4008.7697</v>
+        <v>3936.1289</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>3207.01576</v>
+        <v>3148.90312</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>450</v>
+        <v>2242</v>
       </c>
       <c r="B31" t="n">
-        <v>4004.7671</v>
+        <v>3936.1289</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3203.81368</v>
+        <v>3148.90312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1698</v>
+        <v>2034</v>
       </c>
       <c r="B32" t="n">
-        <v>4000.4076</v>
+        <v>3935.0236</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>27.9968376159668</v>
       </c>
       <c r="D32" t="n">
-        <v>3200.32608</v>
+        <v>3148.02577730386</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2441</v>
+        <v>1349</v>
       </c>
       <c r="B33" t="n">
-        <v>4000.4076</v>
+        <v>3934.9007</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>3200.32608</v>
+        <v>3147.92056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>214</v>
+        <v>2257</v>
       </c>
       <c r="B34" t="n">
-        <v>4000.0431</v>
+        <v>3934.9007</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3200.03448</v>
+        <v>3147.92056</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2591</v>
+        <v>1157</v>
       </c>
       <c r="B35" t="n">
-        <v>4000.0304</v>
+        <v>3932.668</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3200.02432</v>
+        <v>3146.1344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2233</v>
+        <v>713</v>
       </c>
       <c r="B36" t="n">
-        <v>3994.4244</v>
+        <v>3930.9938</v>
       </c>
       <c r="C36" t="n">
-        <v>28.45863151550293</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>3195.546309181633</v>
+        <v>3144.79504</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1584</v>
+        <v>1153</v>
       </c>
       <c r="B37" t="n">
-        <v>3992.6468</v>
+        <v>3930.6648</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3194.11744</v>
+        <v>3144.53184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1588</v>
+        <v>1480</v>
       </c>
       <c r="B38" t="n">
-        <v>3992.0688</v>
+        <v>3927.5172</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>3193.65504</v>
+        <v>3142.01376</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1208</v>
+        <v>1158</v>
       </c>
       <c r="B39" t="n">
-        <v>3991.0569</v>
+        <v>3925.2644</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>3192.84552</v>
+        <v>3140.21152</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1841</v>
+        <v>1904</v>
       </c>
       <c r="B40" t="n">
-        <v>3986.918</v>
+        <v>3924.3199</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3189.5344</v>
+        <v>3139.45592</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1589</v>
+        <v>537</v>
       </c>
       <c r="B41" t="n">
-        <v>3984.6652</v>
+        <v>3921.6018</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>3187.73216</v>
+        <v>3137.28144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>413</v>
+        <v>1227</v>
       </c>
       <c r="B42" t="n">
-        <v>3984.1298</v>
+        <v>3921.3212</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>3187.30384</v>
+        <v>3137.05696</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2145</v>
+        <v>1416</v>
       </c>
       <c r="B43" t="n">
-        <v>3983.7207</v>
+        <v>3921.2683</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>3186.97656</v>
+        <v>3137.01464</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2280</v>
+        <v>1572</v>
       </c>
       <c r="B44" t="n">
-        <v>3983.1512</v>
+        <v>3918.816</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>3186.52096</v>
+        <v>3135.0528</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>407</v>
+        <v>2081</v>
       </c>
       <c r="B45" t="n">
-        <v>3982.7664</v>
+        <v>3918.4268</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>3186.21312</v>
+        <v>3134.74144</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1933</v>
+        <v>1734</v>
       </c>
       <c r="B46" t="n">
-        <v>3982.3266</v>
+        <v>3917.3546</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>3185.86128</v>
+        <v>3133.88368</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1299</v>
+        <v>2105</v>
       </c>
       <c r="B47" t="n">
-        <v>3982.0065</v>
+        <v>3917.2842</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>3185.6052</v>
+        <v>3133.82736</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1558</v>
+        <v>628</v>
       </c>
       <c r="B48" t="n">
-        <v>3979.2238</v>
+        <v>3916.8887</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>3183.37904</v>
+        <v>3133.51096</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2095</v>
+        <v>1132</v>
       </c>
       <c r="B49" t="n">
-        <v>3976.7554</v>
+        <v>3915.369</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>3181.40432</v>
+        <v>3132.2952</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2304</v>
+        <v>544</v>
       </c>
       <c r="B50" t="n">
-        <v>3976.685</v>
+        <v>3915.0107</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>3181.348</v>
+        <v>3132.00856</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1215</v>
+        <v>1066</v>
       </c>
       <c r="B51" t="n">
-        <v>3976.2315</v>
+        <v>3912.9361</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>3180.9852</v>
+        <v>3130.34888</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2371</v>
+        <v>2172</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>24.87474060058594</v>
+        <v>26.65298461914062</v>
       </c>
       <c r="D52" t="n">
-        <v>0.007729546088491839</v>
+        <v>0.007232492360393012</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2368</v>
+        <v>2181</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>24.91283798217773</v>
+        <v>27.24470138549805</v>
       </c>
       <c r="D53" t="n">
-        <v>0.007718182012234842</v>
+        <v>0.007080974136362723</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>420</v>
+        <v>2169</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>25.18358993530273</v>
+        <v>27.31165504455566</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00763837199154821</v>
+        <v>0.007064228484178993</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2380</v>
+        <v>1829</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>25.71427536010742</v>
+        <v>28.75344085693359</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00748663391778394</v>
+        <v>0.006721911625673135</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>56</v>
+        <v>1240</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>26.23632431030273</v>
+        <v>28.78280639648438</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00734313476816494</v>
+        <v>0.006715283890224947</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2370</v>
+        <v>2171</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>26.44260025024414</v>
+        <v>28.95688438415527</v>
       </c>
       <c r="D57" t="n">
-        <v>0.007287939122977996</v>
+        <v>0.006676261704497666</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>510</v>
+        <v>324</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>27.18692588806152</v>
+        <v>29.54205322265625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.007095488198828711</v>
+        <v>0.006548348224723772</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>69</v>
+        <v>337</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>27.26458358764648</v>
+        <v>29.8116340637207</v>
       </c>
       <c r="D59" t="n">
-        <v>0.007075993155172943</v>
+        <v>0.006491054631714288</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2372</v>
+        <v>2173</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>27.59486770629883</v>
+        <v>30.2735538482666</v>
       </c>
       <c r="D60" t="n">
-        <v>0.006994262119140504</v>
+        <v>0.006395179804967558</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2311</v>
+        <v>2113</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>27.74681663513184</v>
+        <v>30.37888526916504</v>
       </c>
       <c r="D61" t="n">
-        <v>0.006957292090407588</v>
+        <v>0.006373712714279662</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2312</v>
+        <v>635</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>27.88825416564941</v>
+        <v>30.42963981628418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006923229034650941</v>
+        <v>0.006363420044552243</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2377</v>
+        <v>2112</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>28.13891220092773</v>
+        <v>30.52610015869141</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006863674203789679</v>
+        <v>0.006343949901613891</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10</v>
+        <v>2178</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>28.14014053344727</v>
+        <v>30.5436897277832</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006863384882116082</v>
+        <v>0.006340412352707205</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>530</v>
+        <v>2179</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>28.23990821838379</v>
+        <v>30.66486740112305</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006839966750451546</v>
+        <v>0.006316148350360901</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>28.2701530456543</v>
+        <v>30.68644332885742</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00683289901791934</v>
+        <v>0.006311847559674087</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>535</v>
+        <v>335</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>28.41270446777344</v>
+        <v>30.75628280639648</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006799782733992845</v>
+        <v>0.006297966333758533</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2307</v>
+        <v>2108</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>28.47622871398926</v>
+        <v>30.82334899902344</v>
       </c>
       <c r="D68" t="n">
-        <v>0.006785128516290862</v>
+        <v>0.006284693669611498</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>71</v>
+        <v>638</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>28.65563583374023</v>
+        <v>30.88105392456055</v>
       </c>
       <c r="D69" t="n">
-        <v>0.006744080657088901</v>
+        <v>0.006273318331108366</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1309</v>
+        <v>1849</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>28.65979766845703</v>
+        <v>30.91669273376465</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0067431343340787</v>
+        <v>0.006266313420012349</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1306</v>
+        <v>1021</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>28.67304992675781</v>
+        <v>31.08553695678711</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00674012278797297</v>
+        <v>0.006233338100882044</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2369</v>
+        <v>2170</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>28.81632995605469</v>
+        <v>31.23853492736816</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00670773365785707</v>
+        <v>0.006203755860822776</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>715</v>
+        <v>634</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>28.97296905517578</v>
+        <v>31.35633277893066</v>
       </c>
       <c r="D73" t="n">
-        <v>0.006672678960560422</v>
+        <v>0.006181170201409017</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1310</v>
+        <v>1109</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>29.17926406860352</v>
+        <v>31.53609466552734</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006627066834544406</v>
+        <v>0.00614701924296723</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>365</v>
+        <v>2110</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>29.24184799194336</v>
+        <v>31.73390960693359</v>
       </c>
       <c r="D75" t="n">
-        <v>0.006613352466201186</v>
+        <v>0.006109872068493664</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1487</v>
+        <v>2274</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>29.27135467529297</v>
+        <v>31.7640380859375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.006606906170711847</v>
+        <v>0.006104253678237576</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2309</v>
+        <v>1366</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>29.2756462097168</v>
+        <v>31.7640380859375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006605969650147753</v>
+        <v>0.006104253678237576</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2262</v>
+        <v>55</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>29.29339599609375</v>
+        <v>31.76848602294922</v>
       </c>
       <c r="D78" t="n">
-        <v>0.006602099019396486</v>
+        <v>0.006103425097513849</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1730</v>
+        <v>639</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>29.33083152770996</v>
+        <v>31.8245677947998</v>
       </c>
       <c r="D79" t="n">
-        <v>0.00659395044337251</v>
+        <v>0.006092997210208044</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2473</v>
+        <v>2422</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>29.33083152770996</v>
+        <v>31.84254837036133</v>
       </c>
       <c r="D80" t="n">
-        <v>0.00659395044337251</v>
+        <v>0.006089661427749909</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>809</v>
+        <v>2175</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>29.35634994506836</v>
+        <v>31.85653305053711</v>
       </c>
       <c r="D81" t="n">
-        <v>0.006588407379738079</v>
+        <v>0.006087069493679601</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2378</v>
+        <v>1854</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>29.3653564453125</v>
+        <v>31.86215019226074</v>
       </c>
       <c r="D82" t="n">
-        <v>0.00658645322870478</v>
+        <v>0.006086029028225345</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>734</v>
+        <v>630</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>29.42086791992188</v>
+        <v>31.86221694946289</v>
       </c>
       <c r="D83" t="n">
-        <v>0.006574434382558328</v>
+        <v>0.006086016664900292</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1301</v>
+        <v>2174</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>29.46917533874512</v>
+        <v>31.87833976745605</v>
       </c>
       <c r="D84" t="n">
-        <v>0.006564010931588183</v>
+        <v>0.006083032215573302</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1033</v>
+        <v>1851</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>29.55691146850586</v>
+        <v>31.89112854003906</v>
       </c>
       <c r="D85" t="n">
-        <v>0.006545164101618527</v>
+        <v>0.006080667002852633</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1308</v>
+        <v>336</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>29.5767936706543</v>
+        <v>31.91402435302734</v>
       </c>
       <c r="D86" t="n">
-        <v>0.006540908185279988</v>
+        <v>0.006076437139829865</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2374</v>
+        <v>2667</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>29.60575485229492</v>
+        <v>31.9704647064209</v>
       </c>
       <c r="D87" t="n">
-        <v>0.006534718747020329</v>
+        <v>0.006066035216089951</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>67</v>
+        <v>637</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>29.65116119384766</v>
+        <v>32.02925491333008</v>
       </c>
       <c r="D88" t="n">
-        <v>0.006525038276205479</v>
+        <v>0.006055238016261857</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>68</v>
+        <v>1114</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>29.66427230834961</v>
+        <v>32.0380744934082</v>
       </c>
       <c r="D89" t="n">
-        <v>0.006522248367379056</v>
+        <v>0.006053621558360014</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>532</v>
+        <v>159</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>29.66814994812012</v>
+        <v>32.12522888183594</v>
       </c>
       <c r="D90" t="n">
-        <v>0.006521423703038192</v>
+        <v>0.006037694130761737</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>369</v>
+        <v>2177</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>29.73601150512695</v>
+        <v>32.23355484008789</v>
       </c>
       <c r="D91" t="n">
-        <v>0.006507025154081517</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>367</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>29.80472755432129</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.006492509945017969</v>
+        <v>0.006018014051230852</v>
       </c>
     </row>
   </sheetData>

--- a/scores.xlsx
+++ b/scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,77 +457,77 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2580</v>
+        <v>722</v>
       </c>
       <c r="B2" t="n">
         <v>4828.4096</v>
       </c>
       <c r="C2" t="n">
-        <v>21.50588417053223</v>
+        <v>21.50591087341309</v>
       </c>
       <c r="D2" t="n">
-        <v>3862.736566564886</v>
+        <v>3862.736566554342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1129</v>
+        <v>1560</v>
       </c>
       <c r="B3" t="n">
         <v>4626.3694</v>
       </c>
       <c r="C3" t="n">
-        <v>29.50381088256836</v>
+        <v>29.50385665893555</v>
       </c>
       <c r="D3" t="n">
-        <v>3701.102076557827</v>
+        <v>3701.102076547988</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>878</v>
+        <v>1370</v>
       </c>
       <c r="B4" t="n">
         <v>4512.3465</v>
       </c>
       <c r="C4" t="n">
-        <v>25.69179153442383</v>
+        <v>25.69175910949707</v>
       </c>
       <c r="D4" t="n">
-        <v>3609.884692940283</v>
+        <v>3609.884692949385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1054</v>
+        <v>1546</v>
       </c>
       <c r="B5" t="n">
         <v>4327.1804</v>
       </c>
       <c r="C5" t="n">
-        <v>29.64146041870117</v>
+        <v>29.64141845703125</v>
       </c>
       <c r="D5" t="n">
-        <v>3461.750847104037</v>
+        <v>3461.750847112976</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>369</v>
+        <v>1040</v>
       </c>
       <c r="B6" t="n">
         <v>4314.6895</v>
       </c>
       <c r="C6" t="n">
-        <v>25.33501815795898</v>
+        <v>25.33498382568359</v>
       </c>
       <c r="D6" t="n">
-        <v>3451.759194450811</v>
+        <v>3451.759194460712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1149</v>
+        <v>1580</v>
       </c>
       <c r="B7" t="n">
         <v>4151.9464</v>
@@ -541,21 +541,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2532</v>
+        <v>674</v>
       </c>
       <c r="B8" t="n">
         <v>4140.4467</v>
       </c>
       <c r="C8" t="n">
-        <v>23.97596740722656</v>
+        <v>23.97596168518066</v>
       </c>
       <c r="D8" t="n">
-        <v>3312.36536769783</v>
+        <v>3312.365367699665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>853</v>
+        <v>1345</v>
       </c>
       <c r="B9" t="n">
         <v>4094.7575</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1217</v>
+        <v>397</v>
       </c>
       <c r="B10" t="n">
         <v>4067.1737</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1142</v>
+        <v>1573</v>
       </c>
       <c r="B11" t="n">
         <v>4060.0285</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1144</v>
+        <v>1575</v>
       </c>
       <c r="B12" t="n">
         <v>4048.9247</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1076</v>
+        <v>331</v>
       </c>
       <c r="B13" t="n">
         <v>4032.3466</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1391</v>
+        <v>2498</v>
       </c>
       <c r="B14" t="n">
         <v>4023.1958</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2299</v>
+        <v>1755</v>
       </c>
       <c r="B15" t="n">
         <v>4023.1958</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1140</v>
+        <v>1571</v>
       </c>
       <c r="B16" t="n">
         <v>4022.467</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>4014.3932</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1223</v>
+        <v>403</v>
       </c>
       <c r="B18" t="n">
         <v>4006.6525</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2201</v>
+        <v>2400</v>
       </c>
       <c r="B19" t="n">
         <v>3998.4969</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1161</v>
+        <v>1592</v>
       </c>
       <c r="B20" t="n">
         <v>3988.8932</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1397</v>
+        <v>2504</v>
       </c>
       <c r="B21" t="n">
         <v>3987.5566</v>
@@ -737,7 +737,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2305</v>
+        <v>1761</v>
       </c>
       <c r="B22" t="n">
         <v>3987.5566</v>
@@ -751,35 +751,35 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2273</v>
+        <v>1729</v>
       </c>
       <c r="B23" t="n">
         <v>3980.1967</v>
       </c>
       <c r="C23" t="n">
-        <v>24.62224578857422</v>
+        <v>24.62224960327148</v>
       </c>
       <c r="D23" t="n">
-        <v>3184.165165717019</v>
+        <v>3184.165165715856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1365</v>
+        <v>2472</v>
       </c>
       <c r="B24" t="n">
         <v>3980.1967</v>
       </c>
       <c r="C24" t="n">
-        <v>24.62224578857422</v>
+        <v>24.62224960327148</v>
       </c>
       <c r="D24" t="n">
-        <v>3184.165165717019</v>
+        <v>3184.165165715856</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>310</v>
+        <v>1028</v>
       </c>
       <c r="B25" t="n">
         <v>3979.3929</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1562</v>
+        <v>1923</v>
       </c>
       <c r="B26" t="n">
         <v>3969.9194</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>322</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>3965.0842</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>554</v>
+        <v>1225</v>
       </c>
       <c r="B28" t="n">
         <v>3956.7696</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2436</v>
+        <v>2591</v>
       </c>
       <c r="B29" t="n">
         <v>3940.6296</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1334</v>
+        <v>2441</v>
       </c>
       <c r="B30" t="n">
         <v>3936.1289</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2242</v>
+        <v>1698</v>
       </c>
       <c r="B31" t="n">
         <v>3936.1289</v>
@@ -877,21 +877,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2034</v>
+        <v>2233</v>
       </c>
       <c r="B32" t="n">
         <v>3935.0236</v>
       </c>
       <c r="C32" t="n">
-        <v>27.9968376159668</v>
+        <v>27.99685287475586</v>
       </c>
       <c r="D32" t="n">
-        <v>3148.02577730386</v>
+        <v>3148.02577730023</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1349</v>
+        <v>1713</v>
       </c>
       <c r="B33" t="n">
         <v>3934.9007</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2257</v>
+        <v>2456</v>
       </c>
       <c r="B34" t="n">
         <v>3934.9007</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1157</v>
+        <v>1588</v>
       </c>
       <c r="B35" t="n">
         <v>3932.668</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>713</v>
+        <v>214</v>
       </c>
       <c r="B36" t="n">
         <v>3930.9938</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1153</v>
+        <v>1584</v>
       </c>
       <c r="B37" t="n">
         <v>3930.6648</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1480</v>
+        <v>1841</v>
       </c>
       <c r="B38" t="n">
         <v>3927.5172</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1158</v>
+        <v>1589</v>
       </c>
       <c r="B39" t="n">
         <v>3925.2644</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1904</v>
+        <v>2145</v>
       </c>
       <c r="B40" t="n">
         <v>3924.3199</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>537</v>
+        <v>1208</v>
       </c>
       <c r="B41" t="n">
         <v>3921.6018</v>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1227</v>
+        <v>407</v>
       </c>
       <c r="B42" t="n">
         <v>3921.3212</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1416</v>
+        <v>450</v>
       </c>
       <c r="B43" t="n">
         <v>3921.2683</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1572</v>
+        <v>1933</v>
       </c>
       <c r="B44" t="n">
         <v>3918.816</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2081</v>
+        <v>2280</v>
       </c>
       <c r="B45" t="n">
         <v>3918.4268</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1734</v>
+        <v>2095</v>
       </c>
       <c r="B46" t="n">
         <v>3917.3546</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2105</v>
+        <v>2304</v>
       </c>
       <c r="B47" t="n">
         <v>3917.2842</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>628</v>
+        <v>1299</v>
       </c>
       <c r="B48" t="n">
         <v>3916.8887</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1132</v>
+        <v>1563</v>
       </c>
       <c r="B49" t="n">
         <v>3915.369</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>544</v>
+        <v>1215</v>
       </c>
       <c r="B50" t="n">
         <v>3915.0107</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1066</v>
+        <v>1558</v>
       </c>
       <c r="B51" t="n">
         <v>3912.9361</v>
@@ -1157,562 +1157,562 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2172</v>
+        <v>2371</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>26.65298461914062</v>
+        <v>26.65297317504883</v>
       </c>
       <c r="D52" t="n">
-        <v>0.007232492360393012</v>
+        <v>0.007232495353536134</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2181</v>
+        <v>2380</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>27.24470138549805</v>
+        <v>27.24469566345215</v>
       </c>
       <c r="D53" t="n">
-        <v>0.007080974136362723</v>
+        <v>0.00708097557088549</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2169</v>
+        <v>2368</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>27.31165504455566</v>
+        <v>27.31163787841797</v>
       </c>
       <c r="D54" t="n">
-        <v>0.007064228484178993</v>
+        <v>0.007064232767418254</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1829</v>
+        <v>510</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>28.75344085693359</v>
+        <v>28.7534351348877</v>
       </c>
       <c r="D55" t="n">
-        <v>0.006721911625673135</v>
+        <v>0.006721912918400738</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1240</v>
+        <v>420</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>28.78280639648438</v>
+        <v>28.78277206420898</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006715283890224947</v>
+        <v>0.00671529163131014</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2171</v>
+        <v>2370</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>28.95688438415527</v>
+        <v>28.95686340332031</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006676261704497666</v>
+        <v>0.006676266380339162</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>29.54205322265625</v>
+        <v>29.54202270507812</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006548348224723772</v>
+        <v>0.006548354767830968</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>337</v>
+        <v>69</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>29.8116340637207</v>
+        <v>29.81160736083984</v>
       </c>
       <c r="D59" t="n">
-        <v>0.006491054631714288</v>
+        <v>0.006491060257187068</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2173</v>
+        <v>2372</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>30.2735538482666</v>
+        <v>30.27353858947754</v>
       </c>
       <c r="D60" t="n">
-        <v>0.006395179804967558</v>
+        <v>0.006395182925263631</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2113</v>
+        <v>2312</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>30.37888526916504</v>
+        <v>30.37886810302734</v>
       </c>
       <c r="D61" t="n">
-        <v>0.006373712714279662</v>
+        <v>0.006373716201085806</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>635</v>
+        <v>1306</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>30.42963981628418</v>
+        <v>30.42963027954102</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006363420044552243</v>
+        <v>0.006363421975415</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2112</v>
+        <v>2311</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>30.52610015869141</v>
+        <v>30.52607917785645</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006343949901613891</v>
+        <v>0.006343954123558686</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2178</v>
+        <v>2377</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>30.5436897277832</v>
+        <v>30.54367446899414</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006340412352707205</v>
+        <v>0.006340415419788523</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2179</v>
+        <v>2378</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>30.66486740112305</v>
+        <v>30.66486549377441</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006316148350360901</v>
+        <v>0.006316148730817182</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>30.68644332885742</v>
+        <v>30.68642997741699</v>
       </c>
       <c r="D66" t="n">
-        <v>0.006311847559674087</v>
+        <v>0.006311850219243399</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>335</v>
+        <v>67</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>30.75628280639648</v>
+        <v>30.75627899169922</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006297966333758533</v>
+        <v>0.006297967090296633</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2108</v>
+        <v>2307</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>30.82334899902344</v>
+        <v>30.82333374023438</v>
       </c>
       <c r="D68" t="n">
-        <v>0.006284693669611498</v>
+        <v>0.006284696683023475</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>638</v>
+        <v>1309</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>30.88105392456055</v>
+        <v>30.88104057312012</v>
       </c>
       <c r="D69" t="n">
-        <v>0.006273318331108366</v>
+        <v>0.006273320958307307</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1849</v>
+        <v>530</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>30.91669273376465</v>
+        <v>30.91666412353516</v>
       </c>
       <c r="D70" t="n">
-        <v>0.006266313420012349</v>
+        <v>0.006266319037161569</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1021</v>
+        <v>1513</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>31.08553695678711</v>
+        <v>31.08553314208984</v>
       </c>
       <c r="D71" t="n">
-        <v>0.006233338100882044</v>
+        <v>0.006233338841972982</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2170</v>
+        <v>2369</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>31.23853492736816</v>
+        <v>31.23851585388184</v>
       </c>
       <c r="D72" t="n">
-        <v>0.006203755860822776</v>
+        <v>0.006203759531191882</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>634</v>
+        <v>1305</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>31.35633277893066</v>
+        <v>31.35631942749023</v>
       </c>
       <c r="D73" t="n">
-        <v>0.006181170201409017</v>
+        <v>0.006181172751993484</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1109</v>
+        <v>364</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>31.53609466552734</v>
+        <v>31.53607177734375</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00614701924296723</v>
+        <v>0.006147023567217125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2110</v>
+        <v>2309</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>31.73390960693359</v>
+        <v>31.73389053344727</v>
       </c>
       <c r="D75" t="n">
-        <v>0.006109872068493664</v>
+        <v>0.006109875628613146</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2274</v>
+        <v>2473</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>31.7640380859375</v>
+        <v>31.76403045654297</v>
       </c>
       <c r="D76" t="n">
-        <v>0.006104253678237576</v>
+        <v>0.006104255099667082</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1366</v>
+        <v>1730</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>31.7640380859375</v>
+        <v>31.76403045654297</v>
       </c>
       <c r="D77" t="n">
-        <v>0.006104253678237576</v>
+        <v>0.006104255099667082</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>31.76848602294922</v>
+        <v>31.76845169067383</v>
       </c>
       <c r="D78" t="n">
-        <v>0.006103425097513849</v>
+        <v>0.006103431492215473</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>639</v>
+        <v>1310</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>31.8245677947998</v>
+        <v>31.82455825805664</v>
       </c>
       <c r="D79" t="n">
-        <v>0.006092997210208044</v>
+        <v>0.00609299898044815</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2422</v>
+        <v>2577</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>31.84254837036133</v>
+        <v>31.84254455566406</v>
       </c>
       <c r="D80" t="n">
-        <v>0.006089661427749909</v>
+        <v>0.006089662135070706</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2175</v>
+        <v>2374</v>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>31.85653305053711</v>
+        <v>31.85651016235352</v>
       </c>
       <c r="D81" t="n">
-        <v>0.006087069493679601</v>
+        <v>0.006087073733994943</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1854</v>
+        <v>535</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>31.86215019226074</v>
+        <v>31.86211585998535</v>
       </c>
       <c r="D82" t="n">
-        <v>0.006086029028225345</v>
+        <v>0.006086035386526361</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>630</v>
+        <v>1301</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>31.86221694946289</v>
+        <v>31.86219787597656</v>
       </c>
       <c r="D83" t="n">
-        <v>0.006086016664900292</v>
+        <v>0.006086020197273754</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2174</v>
+        <v>2373</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>31.87833976745605</v>
+        <v>31.87833404541016</v>
       </c>
       <c r="D84" t="n">
-        <v>0.006083032215573302</v>
+        <v>0.006083033274245846</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1851</v>
+        <v>532</v>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>31.89112854003906</v>
+        <v>31.89111518859863</v>
       </c>
       <c r="D85" t="n">
-        <v>0.006080667002852633</v>
+        <v>0.006080669471168552</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>336</v>
+        <v>68</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>31.91402435302734</v>
+        <v>31.91400527954102</v>
       </c>
       <c r="D86" t="n">
-        <v>0.006076437139829865</v>
+        <v>0.006076440661092006</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2667</v>
+        <v>809</v>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>31.9704647064209</v>
+        <v>31.9704475402832</v>
       </c>
       <c r="D87" t="n">
-        <v>0.006066035216089951</v>
+        <v>0.006066038374384835</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>637</v>
+        <v>1308</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>32.02925491333008</v>
+        <v>32.02923965454102</v>
       </c>
       <c r="D88" t="n">
-        <v>0.006055238016261857</v>
+        <v>0.006055240813649886</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1114</v>
+        <v>369</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>32.0380744934082</v>
+        <v>32.03805923461914</v>
       </c>
       <c r="D89" t="n">
-        <v>0.006053621558360014</v>
+        <v>0.006053624354254706</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>159</v>
+        <v>877</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>32.12522888183594</v>
+        <v>32.12521743774414</v>
       </c>
       <c r="D90" t="n">
-        <v>0.006037694130761737</v>
+        <v>0.006037696216662788</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2177</v>
+        <v>2376</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>32.23355484008789</v>
+        <v>32.23354339599609</v>
       </c>
       <c r="D91" t="n">
-        <v>0.006018014051230852</v>
+        <v>0.006018016123555924</v>
       </c>
     </row>
   </sheetData>
